--- a/final_stuff/3.FinalProject_Claim_Draft.xlsx
+++ b/final_stuff/3.FinalProject_Claim_Draft.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t xml:space="preserve">By:</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t xml:space="preserve">Linear regression </t>
+  </si>
+  <si>
+    <t xml:space="preserve">With nonlinear regression as well</t>
   </si>
   <si>
     <t xml:space="preserve">Pearson correlation</t>
@@ -398,7 +401,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -513,6 +516,9 @@
       <c r="B13" s="11" t="s">
         <v>19</v>
       </c>
+      <c r="C13" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="F13" s="0" t="s">
         <v>20</v>
       </c>
@@ -527,17 +533,26 @@
       <c r="B15" s="11" t="s">
         <v>22</v>
       </c>
+      <c r="E15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9"/>
       <c r="B16" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9"/>
       <c r="B17" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>13</v>
@@ -549,10 +564,10 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>13</v>
@@ -561,7 +576,7 @@
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9"/>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>13</v>
@@ -572,10 +587,10 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>13</v>
@@ -584,7 +599,7 @@
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9"/>
       <c r="B23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>13</v>
@@ -593,7 +608,7 @@
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9"/>
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>13</v>
@@ -604,10 +619,13 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -615,10 +633,13 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>20</v>
@@ -627,7 +648,10 @@
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9"/>
       <c r="B29" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>20</v>
@@ -635,10 +659,10 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>13</v>
@@ -649,24 +673,24 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/final_stuff/3.FinalProject_Claim_Draft.xlsx
+++ b/final_stuff/3.FinalProject_Claim_Draft.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t xml:space="preserve">By:</t>
   </si>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">X</t>
   </si>
   <si>
-    <t xml:space="preserve">Skipped due to computation constraint</t>
+    <t xml:space="preserve">Skipped due to computation constraint; see GMM clusters.</t>
   </si>
   <si>
     <t xml:space="preserve">K-means</t>
@@ -91,7 +91,7 @@
     <t xml:space="preserve">Linear regression </t>
   </si>
   <si>
-    <t xml:space="preserve">With nonlinear regression as well</t>
+    <t xml:space="preserve">With interactive nonlinear regression. (See final part)</t>
   </si>
   <si>
     <t xml:space="preserve">Pearson correlation</t>
@@ -106,6 +106,9 @@
     <t xml:space="preserve">t-test</t>
   </si>
   <si>
+    <t xml:space="preserve">With interactive, multiple hypotheses.</t>
+  </si>
+  <si>
     <t xml:space="preserve">p-value</t>
   </si>
   <si>
@@ -140,6 +143,9 @@
   </si>
   <si>
     <t xml:space="preserve">Line graphs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Line graphs included with the interactive regression studio.</t>
   </si>
   <si>
     <t xml:space="preserve">Other:</t>
@@ -401,7 +407,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -572,11 +578,14 @@
       <c r="D19" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="F19" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="9"/>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>13</v>
@@ -587,10 +596,10 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>13</v>
@@ -599,7 +608,7 @@
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9"/>
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>13</v>
@@ -608,7 +617,7 @@
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9"/>
       <c r="B24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>13</v>
@@ -619,10 +628,10 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>13</v>
@@ -633,10 +642,10 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>13</v>
@@ -648,7 +657,7 @@
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9"/>
       <c r="B29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>13</v>
@@ -659,13 +668,16 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>13</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -673,24 +685,24 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
